--- a/archivos_prueba/produccion.xlsx
+++ b/archivos_prueba/produccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12bd49978ae318a8/filo/Projectos/fedepapa/archivos_prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3746B3C2-5714-4AB4-AA7C-97EB15E58C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C171C3-2EEC-4DF6-823B-41FF5F4219E2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{3746B3C2-5714-4AB4-AA7C-97EB15E58C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D50A279-8DE0-4895-8981-0E3818AE67E9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6738C518-5464-484B-92D0-9A079D55A865}"/>
   </bookViews>
@@ -471,10 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DB8D98-B5A9-41F4-A32B-7E421E15FB77}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2024</v>
       </c>
@@ -519,7 +520,7 @@
         <v>13366.50454</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2024</v>
       </c>
@@ -536,7 +537,7 @@
         <v>11748.08822</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2024</v>
       </c>
@@ -553,7 +554,7 @@
         <v>10288.149069999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2024</v>
       </c>
@@ -570,7 +571,7 @@
         <v>12445.816339999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2024</v>
       </c>
@@ -587,7 +588,7 @@
         <v>12022.022150000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2024</v>
       </c>
@@ -604,7 +605,7 @@
         <v>10939.419680000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2024</v>
       </c>
@@ -621,7 +622,7 @@
         <v>11465.32439</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -638,7 +639,7 @@
         <v>12464.823350000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -655,7 +656,7 @@
         <v>13464.275589999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2024</v>
       </c>
@@ -672,7 +673,7 @@
         <v>13018.05646</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2024</v>
       </c>
@@ -689,7 +690,7 @@
         <v>13331.17463</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2024</v>
       </c>
@@ -706,7 +707,7 @@
         <v>14384.345569999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2024</v>
       </c>
@@ -723,7 +724,7 @@
         <v>116420.47388999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2024</v>
       </c>
@@ -740,7 +741,7 @@
         <v>10751.884099999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2024</v>
       </c>
@@ -757,7 +758,7 @@
         <v>9298.3194800000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2024</v>
       </c>
@@ -774,7 +775,7 @@
         <v>86241.823069999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2024</v>
       </c>
@@ -791,7 +792,7 @@
         <v>85672.218599999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2024</v>
       </c>
@@ -808,7 +809,7 @@
         <v>661.28084999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2024</v>
       </c>
@@ -825,7 +826,7 @@
         <v>57347.224860000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2024</v>
       </c>
@@ -842,7 +843,7 @@
         <v>61366.650370000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2024</v>
       </c>
@@ -859,7 +860,7 @@
         <v>6436.1080599999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2024</v>
       </c>
@@ -876,7 +877,7 @@
         <v>87676.553</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2024</v>
       </c>
@@ -893,7 +894,7 @@
         <v>72800.621039999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2024</v>
       </c>
@@ -910,7 +911,7 @@
         <v>86590.842669999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2024</v>
       </c>
@@ -927,7 +928,7 @@
         <v>1494.7102550898167</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2024</v>
       </c>
@@ -944,7 +945,7 @@
         <v>515.41732934131755</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2024</v>
       </c>
@@ -961,7 +962,7 @@
         <v>387.96868063146411</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2024</v>
       </c>
@@ -978,7 +979,7 @@
         <v>121.82591420794787</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2024</v>
       </c>
@@ -995,7 +996,7 @@
         <v>134.94562804572692</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2024</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>627.87201937942314</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2024</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>964.29896707675289</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2024</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>524.78855351115976</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2024</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>818.1078700272185</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2024</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>412.33386347305418</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2024</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>862.15262362547571</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2024</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>1743.0476955906393</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2024</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>5127.8403590545286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2024</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>5041.3186798042589</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2024</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>4637.4753186674352</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2024</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>5345.8241594017845</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2024</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>5514.1488700188065</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2024</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>5222.0754021728326</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2024</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>5664.4166253738804</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2024</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>5564.5763408240091</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2024</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>4795.1609067078571</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2024</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>5274.8178672423901</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2024</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>4649.6512033939907</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2024</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>4268.31746733822</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2024</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>102097.02339</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2024</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>95271.580100000006</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2024</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>84806.909870000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2024</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>84602.093059999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2024</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>7311.1039000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2024</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>70705.289690000005</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2024</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>87660.823810000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2024</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>95077.093949999995</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2024</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>90112.113270000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2024</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>99681.821620000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2024</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>86342.212459999995</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2024</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>90698.934890000004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2024</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>28131.336569999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2024</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>32514.586599999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2024</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>43644.416270000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2024</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>51420.66259</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2024</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>52458.967929999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2024</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>41735.030039999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2024</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>55034.534780000002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2024</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>46064.373939999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2024</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>31900.261620000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2024</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>38173.073239999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2024</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>41142.218099999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2024</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>38357.53832</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2024</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>2318.0859022801465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2024</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>1994.9133796073704</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2024</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>2474.3847599238184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2024</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>2711.7971969443392</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2024</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>2251.9933561212356</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2024</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>1582.0552746013834</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2024</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>2021.3503980709331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2024</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>3173.8041226393952</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2024</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>2988.6648812172971</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2024</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>2986.7822450539807</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2024</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>3458.2023515656069</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2024</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>3318.2063219744764</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2024</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>3790.1637450633716</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2024</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>2611.1605006886525</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2024</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>2026.6970155077483</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2024</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>2516.8513270197136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2024</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>3278.7680936381494</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2024</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>2478.9217769043285</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2024</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>3153.0621211784951</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2024</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>3881.1669506377084</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2024</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>4369.3416405361495</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2024</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>4522.0892442366994</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2024</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>4650.5666869553243</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2024</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>3888.7686976336931</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2024</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>1848.8801277528646</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2024</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>449.84357352069901</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2024</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>1567.9952232698115</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2024</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>990.66860576608701</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2024</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>1119.8487564831487</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2024</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>910.29751066041194</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2024</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>1125.712741962961</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2024</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>1116.5718234208989</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2024</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>1865.9546737087903</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2024</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>2690.1895739448873</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2024</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>2584.292894985902</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2024</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>2326.6224741964684</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2024</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>1898.2065938477624</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2024</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>437.00738306114698</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2024</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>404.12365918723884</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2024</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>500.46720106342485</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2024</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>348.1636378579567</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2024</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>418.61845852639573</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2024</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>617.50729721990092</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2024</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>484.02533912647334</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2024</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>228.59957166729947</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2024</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>264.65628644132187</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2024</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>238.40699808583349</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2024</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>355.44709424230905</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2025</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>13535.15366</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2025</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>11098.35268</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2025</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>11469.254279999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2025</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>12549.84641</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2025</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>14173.561079999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2025</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>13279.83188</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2025</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>16800.422740000002</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>2025</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>15227.07093</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2025</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>1567.37646</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>2025</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>16917.429540000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2025</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>15391.667289999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2025</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>16467.033039999998</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2025</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>67139.625880000007</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2025</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>58962.098689999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2025</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>51722.268109999997</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2025</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>44940.680310000003</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2025</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>56057.193460000002</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2025</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>61216.133549999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2025</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>7689.4968500000004</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2025</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>70681.801550000004</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2025</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>71997.870760000005</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2025</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>75417.049029999995</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2025</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>71778.993700000006</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2025</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>69938.788109999994</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2025</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>967.78687249894767</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2025</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>1318.2478994171699</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2025</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>562.66678633659831</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2025</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>490.3239138076064</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2025</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>345.6381687496243</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2025</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>178.44575223817782</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>2025</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>338.67181806164774</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>2025</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>146.82923757735989</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>2025</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>658.05220344889779</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>2025</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>906.6973356966862</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>2025</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>1578.1463673916921</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>2025</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>1427.0301447755835</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>2025</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>5543.6952192086137</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>2025</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>5490.0303386700652</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>2025</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>6406.4166245691767</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>2025</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>5650.9920503119756</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>2025</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>6002.1682669349611</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>2025</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>5478.2084780973482</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>2025</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>5069.3279708236851</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>2025</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>4867.1050020853536</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>2025</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>5518.2293728495561</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>2025</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>5665.3824488364253</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>2025</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>4935.9396238602085</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>2025</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>4810.6740037526315</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>2025</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>94770.046019999994</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>2025</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>82345.327609999993</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>2025</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>78784.461219999997</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>2025</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>74714.532489999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>2025</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>84486.473180000001</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>2025</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>92083.159490000005</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>2025</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>131761.05097000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>2025</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>126668.57184</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>2025</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>120469.36773</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>2025</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>13286.579390000001</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>2025</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>11704.908299999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>2025</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>132968.52176999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>2025</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>37382.214059999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>2025</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>43451.227129999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>2025</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>62622.616240000003</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>2025</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>7355.3721800000003</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>2025</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>75832.393549999993</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>2025</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>56737.176829999997</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>2025</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>43748.326179999996</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>2025</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>39602.976840000003</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>2025</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>34912.18202</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>2025</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>37449.2258</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>2025</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>34552.943079999997</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>2025</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>39622.34607</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>2025</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>2894.7313159615605</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>2025</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>2111.1781643734598</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>2025</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>2504.7579163466839</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>2025</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>3102.4377180058741</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>2025</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>2992.0053606542988</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>2025</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>2637.7056086922712</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>2025</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>2726.2074449457837</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>2025</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>3049.7069983878696</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>2025</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>2778.0122092285396</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>2025</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>2832.7897774823673</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>2025</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>2689.2179660270526</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>2025</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>2675.913449894229</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>2025</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>4010.7630576652259</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>2025</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>2505.3782117391975</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>2025</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>1752.4278701846472</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>2025</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>2114.3306405401963</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>2025</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>3207.1746993059678</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>2025</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>3413.4235996701341</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>2025</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>3834.0458360318166</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>2025</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>3990.516448229725</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>2025</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>4581.0640499810806</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>2025</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>5155.2338211699398</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>2025</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>4251.2291578397044</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>2025</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>4422.7880076424262</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>2025</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>1676.4981413359747</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>2025</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>1949.2348771509562</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>2025</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>1696.6237528846643</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>2025</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>1301.5718779160188</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>2025</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>1583.3304395976513</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>2025</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>1354.3148599056847</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>2025</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>1962.9411126022176</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>2025</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>1855.1996921562245</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>2025</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>1605.3645143104411</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>2025</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>1700.9611691667085</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>2025</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>1754.3981377615012</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>2025</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>2309.4139252119639</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>2025</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>392.46997166040683</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>2025</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>448.38692225190289</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>2025</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>426.44066902327842</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>2025</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>497.14177223884775</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>2025</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>506.34080053827148</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>2025</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>521.05924581734917</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>2025</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>446.8099459720022</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>2025</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>364.28152065717313</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>2025</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>333.81959551708223</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>2025</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>377.29157496635804</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>2025</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>476.83820263512013</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>2025</v>
       </c>
@@ -6623,7 +6624,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E361" xr:uid="{41DB8D98-B5A9-41F4-A32B-7E421E15FB77}"/>
+  <autoFilter ref="A1:E361" xr:uid="{41DB8D98-B5A9-41F4-A32B-7E421E15FB77}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2026"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/archivos_prueba/produccion.xlsx
+++ b/archivos_prueba/produccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12bd49978ae318a8/filo/Projectos/fedepapa/archivos_prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3746B3C2-5714-4AB4-AA7C-97EB15E58C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D50A279-8DE0-4895-8981-0E3818AE67E9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{3746B3C2-5714-4AB4-AA7C-97EB15E58C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FABD0DDD-77AF-4457-99E8-1E336DD78770}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6738C518-5464-484B-92D0-9A079D55A865}"/>
+    <workbookView xWindow="5468" yWindow="0" windowWidth="16200" windowHeight="9307" xr2:uid="{6738C518-5464-484B-92D0-9A079D55A865}"/>
   </bookViews>
   <sheets>
     <sheet name="Base producción" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,6 +119,13 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -156,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -171,8 +182,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -186,10 +199,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,11 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DB8D98-B5A9-41F4-A32B-7E421E15FB77}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E243" sqref="E243"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -483,7 +491,9 @@
     <col min="1" max="3" width="11.53125" style="1"/>
     <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.53125" style="1"/>
+    <col min="6" max="6" width="11.53125" style="1"/>
+    <col min="7" max="7" width="15.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.53125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -503,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>2024</v>
       </c>
@@ -520,7 +530,7 @@
         <v>13366.50454</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2024</v>
       </c>
@@ -537,7 +547,7 @@
         <v>11748.08822</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2024</v>
       </c>
@@ -554,7 +564,7 @@
         <v>10288.149069999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2024</v>
       </c>
@@ -571,7 +581,7 @@
         <v>12445.816339999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2024</v>
       </c>
@@ -588,7 +598,7 @@
         <v>12022.022150000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2024</v>
       </c>
@@ -605,7 +615,7 @@
         <v>10939.419680000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>2024</v>
       </c>
@@ -622,7 +632,7 @@
         <v>11465.32439</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
@@ -639,7 +649,7 @@
         <v>12464.823350000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2024</v>
       </c>
@@ -656,7 +666,7 @@
         <v>13464.275589999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2024</v>
       </c>
@@ -673,7 +683,7 @@
         <v>13018.05646</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2024</v>
       </c>
@@ -690,7 +700,7 @@
         <v>13331.17463</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2024</v>
       </c>
@@ -707,7 +717,7 @@
         <v>14384.345569999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2024</v>
       </c>
@@ -724,7 +734,7 @@
         <v>116420.47388999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2024</v>
       </c>
@@ -741,7 +751,7 @@
         <v>10751.884099999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2024</v>
       </c>
@@ -758,7 +768,7 @@
         <v>9298.3194800000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2024</v>
       </c>
@@ -775,7 +785,7 @@
         <v>86241.823069999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2024</v>
       </c>
@@ -792,7 +802,7 @@
         <v>85672.218599999993</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2024</v>
       </c>
@@ -809,7 +819,7 @@
         <v>661.28084999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>2024</v>
       </c>
@@ -826,7 +836,7 @@
         <v>57347.224860000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2024</v>
       </c>
@@ -843,7 +853,7 @@
         <v>61366.650370000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2024</v>
       </c>
@@ -860,7 +870,7 @@
         <v>6436.1080599999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2024</v>
       </c>
@@ -877,7 +887,7 @@
         <v>87676.553</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2024</v>
       </c>
@@ -894,7 +904,7 @@
         <v>72800.621039999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2024</v>
       </c>
@@ -911,7 +921,7 @@
         <v>86590.842669999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2024</v>
       </c>
@@ -928,7 +938,7 @@
         <v>1494.7102550898167</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2024</v>
       </c>
@@ -945,7 +955,7 @@
         <v>515.41732934131755</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2024</v>
       </c>
@@ -962,7 +972,7 @@
         <v>387.96868063146411</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2024</v>
       </c>
@@ -979,7 +989,7 @@
         <v>121.82591420794787</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2024</v>
       </c>
@@ -996,7 +1006,7 @@
         <v>134.94562804572692</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2024</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>627.87201937942314</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2024</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>964.29896707675289</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2024</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>524.78855351115976</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2024</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>818.1078700272185</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>2024</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>412.33386347305418</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>2024</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>862.15262362547571</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2024</v>
       </c>
@@ -1115,7 +1125,7 @@
         <v>1743.0476955906393</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2024</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>5127.8403590545286</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>2024</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>5041.3186798042589</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>2024</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>4637.4753186674352</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2024</v>
       </c>
@@ -1183,7 +1193,7 @@
         <v>5345.8241594017845</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2024</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>5514.1488700188065</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2024</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>5222.0754021728326</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>2024</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>5664.4166253738804</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>2024</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>5564.5763408240091</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>2024</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>4795.1609067078571</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>2024</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>5274.8178672423901</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2024</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>4649.6512033939907</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2024</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>4268.31746733822</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2024</v>
       </c>
@@ -1336,7 +1346,7 @@
         <v>102097.02339</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2024</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>95271.580100000006</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2024</v>
       </c>
@@ -1370,7 +1380,7 @@
         <v>84806.909870000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2024</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>84602.093059999999</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>2024</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>7311.1039000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2024</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>70705.289690000005</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2024</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>87660.823810000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>2024</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>95077.093949999995</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>2024</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>90112.113270000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2024</v>
       </c>
@@ -1489,7 +1499,7 @@
         <v>99681.821620000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>2024</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>86342.212459999995</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>2024</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>90698.934890000004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2024</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>28131.336569999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2024</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>32514.586599999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2024</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>43644.416270000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>2024</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>51420.66259</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>2024</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>52458.967929999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2024</v>
       </c>
@@ -1625,7 +1635,7 @@
         <v>41735.030039999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2024</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>55034.534780000002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2024</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>46064.373939999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>2024</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>31900.261620000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2024</v>
       </c>
@@ -1693,7 +1703,7 @@
         <v>38173.073239999998</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2024</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>41142.218099999998</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2024</v>
       </c>
@@ -1727,7 +1737,7 @@
         <v>38357.53832</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>2024</v>
       </c>
@@ -1744,7 +1754,7 @@
         <v>2318.0859022801465</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2024</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>1994.9133796073704</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2024</v>
       </c>
@@ -1778,7 +1788,7 @@
         <v>2474.3847599238184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>2024</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>2711.7971969443392</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2024</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>2251.9933561212356</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2024</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>1582.0552746013834</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>2024</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>2021.3503980709331</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>2024</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>3173.8041226393952</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>2024</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>2988.6648812172971</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2024</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>2986.7822450539807</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2024</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>3458.2023515656069</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2024</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>3318.2063219744764</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>2024</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>3790.1637450633716</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2024</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>2611.1605006886525</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>2024</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>2026.6970155077483</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2024</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>2516.8513270197136</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2024</v>
       </c>
@@ -2016,7 +2026,7 @@
         <v>3278.7680936381494</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2024</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>2478.9217769043285</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2024</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>3153.0621211784951</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2024</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>3881.1669506377084</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>2024</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>4369.3416405361495</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>2024</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>4522.0892442366994</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>2024</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>4650.5666869553243</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>2024</v>
       </c>
@@ -2135,7 +2145,7 @@
         <v>3888.7686976336931</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2024</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>1848.8801277528646</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>2024</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>449.84357352069901</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2024</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>1567.9952232698115</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2024</v>
       </c>
@@ -2203,7 +2213,7 @@
         <v>990.66860576608701</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>2024</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>1119.8487564831487</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2024</v>
       </c>
@@ -2237,7 +2247,7 @@
         <v>910.29751066041194</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>2024</v>
       </c>
@@ -2254,7 +2264,7 @@
         <v>1125.712741962961</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>2024</v>
       </c>
@@ -2271,7 +2281,7 @@
         <v>1116.5718234208989</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>2024</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>1865.9546737087903</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2024</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>2690.1895739448873</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2024</v>
       </c>
@@ -2322,7 +2332,7 @@
         <v>2584.292894985902</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2024</v>
       </c>
@@ -2339,7 +2349,7 @@
         <v>2326.6224741964684</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>2024</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>1898.2065938477624</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>2024</v>
       </c>
@@ -2372,8 +2382,11 @@
       <c r="E111" s="4">
         <v>437.00738306114698</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G111" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>2024</v>
       </c>
@@ -2389,8 +2402,12 @@
       <c r="E112" s="4">
         <v>404.12365918723884</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G112" s="1">
+        <f>9531*1000</f>
+        <v>9531000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>2024</v>
       </c>
@@ -2406,8 +2423,12 @@
       <c r="E113" s="4">
         <v>500.46720106342485</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="5">
+        <f>+G112*G111</f>
+        <v>9750213000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>2024</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>348.1636378579567</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>2024</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>418.61845852639573</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>2024</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>617.50729721990092</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>2024</v>
       </c>
@@ -2475,7 +2496,7 @@
         <v>484.02533912647334</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2024</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>228.59957166729947</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>2024</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>264.65628644132187</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2024</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>238.40699808583349</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2024</v>
       </c>
@@ -2543,7 +2564,7 @@
         <v>355.44709424230905</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2025</v>
       </c>
@@ -2560,7 +2581,7 @@
         <v>13535.15366</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2025</v>
       </c>
@@ -2577,7 +2598,7 @@
         <v>11098.35268</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2025</v>
       </c>
@@ -2594,7 +2615,7 @@
         <v>11469.254279999999</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2025</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>12549.84641</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2025</v>
       </c>
@@ -2628,7 +2649,7 @@
         <v>14173.561079999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2025</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>13279.83188</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2025</v>
       </c>
@@ -2662,7 +2683,7 @@
         <v>16800.422740000002</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>2025</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>15227.07093</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2025</v>
       </c>
@@ -2696,7 +2717,7 @@
         <v>1567.37646</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>2025</v>
       </c>
@@ -2713,7 +2734,7 @@
         <v>16917.429540000001</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2025</v>
       </c>
@@ -2730,7 +2751,7 @@
         <v>15391.667289999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2025</v>
       </c>
@@ -2747,7 +2768,7 @@
         <v>16467.033039999998</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2025</v>
       </c>
@@ -2764,7 +2785,7 @@
         <v>67139.625880000007</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>2025</v>
       </c>
@@ -2781,7 +2802,7 @@
         <v>58962.098689999999</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2025</v>
       </c>
@@ -2798,7 +2819,7 @@
         <v>51722.268109999997</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>2025</v>
       </c>
@@ -2815,7 +2836,7 @@
         <v>44940.680310000003</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>2025</v>
       </c>
@@ -2832,7 +2853,7 @@
         <v>56057.193460000002</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>2025</v>
       </c>
@@ -2849,7 +2870,7 @@
         <v>61216.133549999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>2025</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>7689.4968500000004</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2025</v>
       </c>
@@ -2883,7 +2904,7 @@
         <v>70681.801550000004</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>2025</v>
       </c>
@@ -2900,7 +2921,7 @@
         <v>71997.870760000005</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2025</v>
       </c>
@@ -2917,7 +2938,7 @@
         <v>75417.049029999995</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2025</v>
       </c>
@@ -2934,7 +2955,7 @@
         <v>71778.993700000006</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2025</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>69938.788109999994</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2025</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>967.78687249894767</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>2025</v>
       </c>
@@ -2985,7 +3006,7 @@
         <v>1318.2478994171699</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2025</v>
       </c>
@@ -3002,7 +3023,7 @@
         <v>562.66678633659831</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>2025</v>
       </c>
@@ -3019,7 +3040,7 @@
         <v>490.3239138076064</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2025</v>
       </c>
@@ -3036,7 +3057,7 @@
         <v>345.6381687496243</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2025</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>178.44575223817782</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>2025</v>
       </c>
@@ -3070,7 +3091,7 @@
         <v>338.67181806164774</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>2025</v>
       </c>
@@ -3087,7 +3108,7 @@
         <v>146.82923757735989</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>2025</v>
       </c>
@@ -3104,7 +3125,7 @@
         <v>658.05220344889779</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>2025</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>906.6973356966862</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>2025</v>
       </c>
@@ -3138,7 +3159,7 @@
         <v>1578.1463673916921</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>2025</v>
       </c>
@@ -3155,7 +3176,7 @@
         <v>1427.0301447755835</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>2025</v>
       </c>
@@ -3172,7 +3193,7 @@
         <v>5543.6952192086137</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>2025</v>
       </c>
@@ -3189,7 +3210,7 @@
         <v>5490.0303386700652</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>2025</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>6406.4166245691767</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>2025</v>
       </c>
@@ -3223,7 +3244,7 @@
         <v>5650.9920503119756</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>2025</v>
       </c>
@@ -3240,7 +3261,7 @@
         <v>6002.1682669349611</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>2025</v>
       </c>
@@ -3257,7 +3278,7 @@
         <v>5478.2084780973482</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>2025</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>5069.3279708236851</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>2025</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>4867.1050020853536</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>2025</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>5518.2293728495561</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>2025</v>
       </c>
@@ -3325,7 +3346,7 @@
         <v>5665.3824488364253</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>2025</v>
       </c>
@@ -3342,7 +3363,7 @@
         <v>4935.9396238602085</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>2025</v>
       </c>
@@ -3359,7 +3380,7 @@
         <v>4810.6740037526315</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>2025</v>
       </c>
@@ -3376,7 +3397,7 @@
         <v>94770.046019999994</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>2025</v>
       </c>
@@ -3393,7 +3414,7 @@
         <v>82345.327609999993</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>2025</v>
       </c>
@@ -3410,7 +3431,7 @@
         <v>78784.461219999997</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>2025</v>
       </c>
@@ -3427,7 +3448,7 @@
         <v>74714.532489999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>2025</v>
       </c>
@@ -3444,7 +3465,7 @@
         <v>84486.473180000001</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>2025</v>
       </c>
@@ -3461,7 +3482,7 @@
         <v>92083.159490000005</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>2025</v>
       </c>
@@ -3478,7 +3499,7 @@
         <v>131761.05097000001</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>2025</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>126668.57184</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>2025</v>
       </c>
@@ -3512,7 +3533,7 @@
         <v>120469.36773</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>2025</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>13286.579390000001</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>2025</v>
       </c>
@@ -3546,7 +3567,7 @@
         <v>11704.908299999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>2025</v>
       </c>
@@ -3563,7 +3584,7 @@
         <v>132968.52176999999</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>2025</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>37382.214059999998</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>2025</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>43451.227129999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>2025</v>
       </c>
@@ -3614,7 +3635,7 @@
         <v>62622.616240000003</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>2025</v>
       </c>
@@ -3631,7 +3652,7 @@
         <v>7355.3721800000003</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>2025</v>
       </c>
@@ -3648,7 +3669,7 @@
         <v>75832.393549999993</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>2025</v>
       </c>
@@ -3665,7 +3686,7 @@
         <v>56737.176829999997</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>2025</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>43748.326179999996</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>2025</v>
       </c>
@@ -3699,7 +3720,7 @@
         <v>39602.976840000003</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>2025</v>
       </c>
@@ -3716,7 +3737,7 @@
         <v>34912.18202</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>2025</v>
       </c>
@@ -3733,7 +3754,7 @@
         <v>37449.2258</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>2025</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>34552.943079999997</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>2025</v>
       </c>
@@ -3767,7 +3788,7 @@
         <v>39622.34607</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>2025</v>
       </c>
@@ -3784,7 +3805,7 @@
         <v>2894.7313159615605</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>2025</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>2111.1781643734598</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>2025</v>
       </c>
@@ -3818,7 +3839,7 @@
         <v>2504.7579163466839</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>2025</v>
       </c>
@@ -3835,7 +3856,7 @@
         <v>3102.4377180058741</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>2025</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>2992.0053606542988</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>2025</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>2637.7056086922712</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>2025</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>2726.2074449457837</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>2025</v>
       </c>
@@ -3903,7 +3924,7 @@
         <v>3049.7069983878696</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>2025</v>
       </c>
@@ -3920,7 +3941,7 @@
         <v>2778.0122092285396</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>2025</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>2832.7897774823673</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>2025</v>
       </c>
@@ -3954,7 +3975,7 @@
         <v>2689.2179660270526</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>2025</v>
       </c>
@@ -3971,7 +3992,7 @@
         <v>2675.913449894229</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>2025</v>
       </c>
@@ -3988,7 +4009,7 @@
         <v>4010.7630576652259</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>2025</v>
       </c>
@@ -4005,7 +4026,7 @@
         <v>2505.3782117391975</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>2025</v>
       </c>
@@ -4022,7 +4043,7 @@
         <v>1752.4278701846472</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>2025</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>2114.3306405401963</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>2025</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>3207.1746993059678</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>2025</v>
       </c>
@@ -4073,7 +4094,7 @@
         <v>3413.4235996701341</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>2025</v>
       </c>
@@ -4090,7 +4111,7 @@
         <v>3834.0458360318166</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>2025</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>3990.516448229725</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>2025</v>
       </c>
@@ -4124,7 +4145,7 @@
         <v>4581.0640499810806</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>2025</v>
       </c>
@@ -4141,7 +4162,7 @@
         <v>5155.2338211699398</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>2025</v>
       </c>
@@ -4158,7 +4179,7 @@
         <v>4251.2291578397044</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>2025</v>
       </c>
@@ -4175,7 +4196,7 @@
         <v>4422.7880076424262</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>2025</v>
       </c>
@@ -4192,7 +4213,7 @@
         <v>1676.4981413359747</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>2025</v>
       </c>
@@ -4209,7 +4230,7 @@
         <v>1949.2348771509562</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>2025</v>
       </c>
@@ -4226,7 +4247,7 @@
         <v>1696.6237528846643</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>2025</v>
       </c>
@@ -4243,7 +4264,7 @@
         <v>1301.5718779160188</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>2025</v>
       </c>
@@ -4260,7 +4281,7 @@
         <v>1583.3304395976513</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>2025</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>1354.3148599056847</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>2025</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>1962.9411126022176</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>2025</v>
       </c>
@@ -4311,7 +4332,7 @@
         <v>1855.1996921562245</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>2025</v>
       </c>
@@ -4328,7 +4349,7 @@
         <v>1605.3645143104411</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>2025</v>
       </c>
@@ -4345,7 +4366,7 @@
         <v>1700.9611691667085</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>2025</v>
       </c>
@@ -4362,7 +4383,7 @@
         <v>1754.3981377615012</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>2025</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>2309.4139252119639</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>2025</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>392.46997166040683</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>2025</v>
       </c>
@@ -4413,7 +4434,7 @@
         <v>448.38692225190289</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>2025</v>
       </c>
@@ -4430,7 +4451,7 @@
         <v>426.44066902327842</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>2025</v>
       </c>
@@ -4447,7 +4468,7 @@
         <v>497.14177223884775</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>2025</v>
       </c>
@@ -4464,7 +4485,7 @@
         <v>506.34080053827148</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>2025</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>521.05924581734917</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>2025</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>446.8099459720022</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>2025</v>
       </c>
@@ -4515,7 +4536,7 @@
         <v>364.28152065717313</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>2025</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>333.81959551708223</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>2025</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>377.29157496635804</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>2025</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>476.83820263512013</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>2025</v>
       </c>
@@ -6624,13 +6645,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E361" xr:uid="{41DB8D98-B5A9-41F4-A32B-7E421E15FB77}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2026"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>